--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1083352.592855443</v>
+        <v>1080848.925128167</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9405103.795641251</v>
+        <v>9405103.795641249</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.841400149308679</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,73 +1212,73 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12.73205987707308</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="S9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X10" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,13 +1370,13 @@
         <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980816</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>313.106111847757</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993358</v>
+        <v>131.5711705393054</v>
       </c>
       <c r="F11" t="n">
         <v>365.2991159687855</v>
@@ -1385,7 +1385,7 @@
         <v>369.3447958805275</v>
       </c>
       <c r="H11" t="n">
-        <v>98.35810582222673</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.61083201524988</v>
+        <v>67.61083201524991</v>
       </c>
       <c r="T11" t="n">
         <v>162.3410403666942</v>
@@ -1427,7 +1427,7 @@
         <v>209.418242185976</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W11" t="n">
         <v>307.6640389444871</v>
@@ -1436,7 +1436,7 @@
         <v>328.1541709055431</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1540,13 +1540,13 @@
         <v>103.8441182500053</v>
       </c>
       <c r="G13" t="n">
-        <v>124.4488784861023</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>103.1780851413948</v>
       </c>
       <c r="I13" t="n">
-        <v>54.77549063691215</v>
+        <v>50.52679935684539</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.35522289712138</v>
+        <v>47.35522289712139</v>
       </c>
       <c r="S13" t="n">
         <v>148.1920955585159</v>
@@ -1582,7 +1582,7 @@
         <v>177.9720195032432</v>
       </c>
       <c r="U13" t="n">
-        <v>115.9373386665186</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V13" t="n">
         <v>210.5607135509021</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>323.6959619980816</v>
@@ -1613,10 +1613,10 @@
         <v>313.106111847757</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993358</v>
+        <v>203.501862596266</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G14" t="n">
         <v>369.3447958805275</v>
@@ -1658,7 +1658,7 @@
         <v>67.61083201524988</v>
       </c>
       <c r="T14" t="n">
-        <v>49.63166674185331</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
         <v>209.418242185976</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.5960238881293</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C16" t="n">
         <v>125.6698913257019</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E16" t="n">
         <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>29.92203912074898</v>
       </c>
       <c r="G16" t="n">
         <v>124.4488784861023</v>
@@ -1783,7 +1783,7 @@
         <v>103.1780851413948</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691215</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712139</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S16" t="n">
         <v>148.1920955585159</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>251.622866443012</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>307.7079050020904</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T17" t="n">
-        <v>20.74190027662768</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
         <v>280.7771218515423</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247748</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>321.4139044036888</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>247.6326277687279</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.67994053840931</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247752</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2257,7 +2257,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2494,7 +2494,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247726</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174.4337733362707</v>
+        <v>19.23385065485645</v>
       </c>
       <c r="C28" t="n">
-        <v>161.8486142529612</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>143.2172661725457</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>141.0357558009026</v>
       </c>
       <c r="F28" t="n">
-        <v>140.0228411772646</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.3568080686542</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>90.95421356417148</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>83.53394582438072</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.3708184857753</v>
       </c>
       <c r="T28" t="n">
         <v>214.1507424305026</v>
@@ -2773,13 +2773,13 @@
         <v>246.7394364781614</v>
       </c>
       <c r="W28" t="n">
-        <v>72.65209219140027</v>
+        <v>281.1247914909244</v>
       </c>
       <c r="X28" t="n">
         <v>220.3114485433705</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>213.1864465064282</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>377.335634817814</v>
       </c>
       <c r="C29" t="n">
-        <v>359.8746849253409</v>
+        <v>359.874684925341</v>
       </c>
       <c r="D29" t="n">
-        <v>349.2848347750163</v>
+        <v>349.2848347750164</v>
       </c>
       <c r="E29" t="n">
         <v>376.5321632265952</v>
       </c>
       <c r="F29" t="n">
-        <v>401.4778388960448</v>
+        <v>401.4778388960449</v>
       </c>
       <c r="G29" t="n">
-        <v>405.5235188077868</v>
+        <v>405.5235188077869</v>
       </c>
       <c r="H29" t="n">
         <v>289.2095575416539</v>
       </c>
       <c r="I29" t="n">
-        <v>36.17872292725934</v>
+        <v>36.1787229272594</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.7895549425092</v>
+        <v>103.7895549425093</v>
       </c>
       <c r="T29" t="n">
-        <v>198.5197632939535</v>
+        <v>198.5197632939536</v>
       </c>
       <c r="U29" t="n">
         <v>245.5969651132354</v>
       </c>
       <c r="V29" t="n">
-        <v>322.3540516244683</v>
+        <v>322.3540516244684</v>
       </c>
       <c r="W29" t="n">
-        <v>343.8427618717464</v>
+        <v>343.8427618717465</v>
       </c>
       <c r="X29" t="n">
-        <v>364.3328938328024</v>
+        <v>364.3328938328025</v>
       </c>
       <c r="Y29" t="n">
         <v>380.839731810387</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247726</v>
+        <v>18.81721868247724</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>174.4337733362707</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>161.8486142529613</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>143.2172661725458</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.0357558009026</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>69.36977894386926</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>83.53394582438078</v>
       </c>
       <c r="S31" t="n">
         <v>184.3708184857753</v>
@@ -3007,13 +3007,13 @@
         <v>280.8136313599463</v>
       </c>
       <c r="V31" t="n">
-        <v>246.7394364781614</v>
+        <v>181.2188552508808</v>
       </c>
       <c r="W31" t="n">
-        <v>281.1247914909244</v>
+        <v>281.1247914909245</v>
       </c>
       <c r="X31" t="n">
-        <v>220.3114485433705</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>213.1864465064282</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>369.6094941879149</v>
+        <v>373.6173499853942</v>
       </c>
       <c r="C32" t="n">
-        <v>352.1485442954419</v>
+        <v>352.1485442954427</v>
       </c>
       <c r="D32" t="n">
-        <v>341.5586941451173</v>
+        <v>341.5586941451181</v>
       </c>
       <c r="E32" t="n">
-        <v>368.8060225966962</v>
+        <v>368.8060225966969</v>
       </c>
       <c r="F32" t="n">
-        <v>393.7516982661458</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>397.7973781778886</v>
       </c>
       <c r="H32" t="n">
-        <v>281.4834169117548</v>
+        <v>281.4834169117556</v>
       </c>
       <c r="I32" t="n">
-        <v>28.45258229736029</v>
+        <v>28.45258229736112</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.06341431261018</v>
+        <v>96.06341431261097</v>
       </c>
       <c r="T32" t="n">
-        <v>190.7936226640545</v>
+        <v>190.7936226640553</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>314.6279109945701</v>
       </c>
       <c r="W32" t="n">
-        <v>340.1244770393329</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>356.6067532029042</v>
       </c>
       <c r="Y32" t="n">
-        <v>373.113591180488</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247732</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166.7076327063716</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>154.122473623063</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>135.4911255426475</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.3096151710043</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>112.1871236594961</v>
       </c>
       <c r="G34" t="n">
-        <v>108.5299544997019</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>83.22807293427245</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>176.6446778558762</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>206.4246018006035</v>
+        <v>206.4246018006044</v>
       </c>
       <c r="U34" t="n">
-        <v>273.0874907300473</v>
+        <v>273.087490730048</v>
       </c>
       <c r="V34" t="n">
-        <v>239.0132958482623</v>
+        <v>239.0132958482632</v>
       </c>
       <c r="W34" t="n">
-        <v>273.3986508610254</v>
+        <v>273.3986508610262</v>
       </c>
       <c r="X34" t="n">
-        <v>212.5853079134715</v>
+        <v>212.5853079134723</v>
       </c>
       <c r="Y34" t="n">
-        <v>205.4603058765291</v>
+        <v>205.46030587653</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247752</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="C8" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="D8" t="n">
-        <v>51.11933469231312</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E8" t="n">
-        <v>51.11933469231312</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F8" t="n">
-        <v>35.66202407096459</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G8" t="n">
-        <v>20.20471344961605</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H8" t="n">
-        <v>20.20471344961605</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
@@ -4808,7 +4808,7 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>31.52363928117821</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M8" t="n">
         <v>31.52363928117821</v>
@@ -4823,31 +4823,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T8" t="n">
-        <v>51.11933469231312</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="U8" t="n">
-        <v>51.11933469231312</v>
+        <v>54.54165161445989</v>
       </c>
       <c r="V8" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="W8" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="X8" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="Y8" t="n">
-        <v>51.11933469231312</v>
+        <v>39.08434099311135</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
@@ -4887,16 +4887,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N9" t="n">
-        <v>16.37392914119451</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O9" t="n">
-        <v>31.52363928117821</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="P9" t="n">
         <v>46.6733494211619</v>
@@ -4905,28 +4905,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4978,34 +4978,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46202002507908</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R10" t="n">
-        <v>58.46202002507908</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S10" t="n">
-        <v>58.46202002507908</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="U10" t="n">
-        <v>58.46202002507908</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W10" t="n">
-        <v>58.46202002507908</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X10" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1894.954067762198</v>
+        <v>1257.745645963876</v>
       </c>
       <c r="C11" t="n">
-        <v>1567.988449582317</v>
+        <v>1257.745645963876</v>
       </c>
       <c r="D11" t="n">
-        <v>1251.719649736098</v>
+        <v>941.4768461176568</v>
       </c>
       <c r="E11" t="n">
-        <v>907.9282958983849</v>
+        <v>808.5766738557319</v>
       </c>
       <c r="F11" t="n">
-        <v>538.9392898693086</v>
+        <v>439.5876678266556</v>
       </c>
       <c r="G11" t="n">
-        <v>165.8637384748367</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810575</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3257.312051896798</v>
+        <v>3257.312051896797</v>
       </c>
       <c r="T11" t="n">
-        <v>3093.331203041552</v>
+        <v>3093.33120304155</v>
       </c>
       <c r="U11" t="n">
-        <v>2881.79762507592</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="V11" t="n">
-        <v>2881.79762507592</v>
+        <v>2592.731636492878</v>
       </c>
       <c r="W11" t="n">
-        <v>2571.025868566337</v>
+        <v>2281.959879983296</v>
       </c>
       <c r="X11" t="n">
-        <v>2239.557009065788</v>
+        <v>1950.491020482747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2239.557009065788</v>
+        <v>1602.348587267467</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>797.6353891180886</v>
+        <v>667.6378438997361</v>
       </c>
       <c r="C13" t="n">
-        <v>670.696104950713</v>
+        <v>540.6985597323605</v>
       </c>
       <c r="D13" t="n">
-        <v>562.5763642989085</v>
+        <v>432.5788190805561</v>
       </c>
       <c r="E13" t="n">
-        <v>456.6601694770466</v>
+        <v>326.6626242586942</v>
       </c>
       <c r="F13" t="n">
-        <v>351.7671207396675</v>
+        <v>221.7695755213151</v>
       </c>
       <c r="G13" t="n">
-        <v>226.0611828749178</v>
+        <v>221.7695755213151</v>
       </c>
       <c r="H13" t="n">
-        <v>121.8408948533068</v>
+        <v>117.549287499704</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>152.7959093543157</v>
+        <v>152.7959093543154</v>
       </c>
       <c r="K13" t="n">
-        <v>397.9442527783888</v>
+        <v>397.9442527783885</v>
       </c>
       <c r="L13" t="n">
-        <v>755.6652117020815</v>
+        <v>755.6652117020813</v>
       </c>
       <c r="M13" t="n">
         <v>1140.983417776827</v>
@@ -5212,10 +5212,10 @@
         <v>1523.552954957888</v>
       </c>
       <c r="O13" t="n">
-        <v>1864.043714353499</v>
+        <v>1864.043714353498</v>
       </c>
       <c r="P13" t="n">
-        <v>2137.812375262355</v>
+        <v>2137.812375262354</v>
       </c>
       <c r="Q13" t="n">
         <v>2256.583831890066</v>
@@ -5224,25 +5224,25 @@
         <v>2208.750273408125</v>
       </c>
       <c r="S13" t="n">
-        <v>2059.061287995483</v>
+        <v>2059.061287995482</v>
       </c>
       <c r="T13" t="n">
         <v>1879.29157132554</v>
       </c>
       <c r="U13" t="n">
-        <v>1762.183148430067</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V13" t="n">
-        <v>1549.495558984711</v>
+        <v>1419.498013766359</v>
       </c>
       <c r="W13" t="n">
-        <v>1302.075287708282</v>
+        <v>1172.07774248993</v>
       </c>
       <c r="X13" t="n">
-        <v>1116.082635570796</v>
+        <v>986.0850903524434</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.286955187797</v>
+        <v>807.2894099694446</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1688.53905240711</v>
+        <v>1919.294141564398</v>
       </c>
       <c r="C14" t="n">
-        <v>1361.573434227229</v>
+        <v>1592.328523384518</v>
       </c>
       <c r="D14" t="n">
-        <v>1045.30463438101</v>
+        <v>1276.059723538299</v>
       </c>
       <c r="E14" t="n">
-        <v>701.513280543297</v>
+        <v>1070.502286572373</v>
       </c>
       <c r="F14" t="n">
         <v>701.513280543297</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4377291488247</v>
+        <v>328.4377291488236</v>
       </c>
       <c r="H14" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812204</v>
       </c>
       <c r="I14" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812204</v>
       </c>
       <c r="J14" t="n">
-        <v>362.144960934832</v>
+        <v>261.7301584771475</v>
       </c>
       <c r="K14" t="n">
-        <v>695.9643346246785</v>
+        <v>595.5495321669939</v>
       </c>
       <c r="L14" t="n">
-        <v>1146.998547873087</v>
+        <v>1357.190388626395</v>
       </c>
       <c r="M14" t="n">
-        <v>1680.530452545012</v>
+        <v>1890.72229329832</v>
       </c>
       <c r="N14" t="n">
-        <v>2227.309269603794</v>
+        <v>2437.501110357102</v>
       </c>
       <c r="O14" t="n">
-        <v>2730.281740483131</v>
+        <v>2940.473581236439</v>
       </c>
       <c r="P14" t="n">
-        <v>3125.056106840309</v>
+        <v>3335.247947593617</v>
       </c>
       <c r="Q14" t="n">
-        <v>3583.534309349297</v>
+        <v>3583.534309349299</v>
       </c>
       <c r="R14" t="n">
-        <v>3642.5513759061</v>
+        <v>3642.551375906102</v>
       </c>
       <c r="S14" t="n">
-        <v>3574.257606193727</v>
+        <v>3574.257606193728</v>
       </c>
       <c r="T14" t="n">
-        <v>3524.124609484784</v>
+        <v>3410.276757338482</v>
       </c>
       <c r="U14" t="n">
-        <v>3312.591031519151</v>
+        <v>3198.743179372849</v>
       </c>
       <c r="V14" t="n">
-        <v>3023.525042936112</v>
+        <v>2909.67719078981</v>
       </c>
       <c r="W14" t="n">
-        <v>2712.753286426529</v>
+        <v>2598.905434280227</v>
       </c>
       <c r="X14" t="n">
-        <v>2381.284426925981</v>
+        <v>2267.436574779679</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.1419937107</v>
+        <v>1919.294141564398</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>947.8827655670472</v>
+        <v>947.8827655670466</v>
       </c>
       <c r="C15" t="n">
-        <v>773.4297362859202</v>
+        <v>773.4297362859196</v>
       </c>
       <c r="D15" t="n">
-        <v>624.4953266246689</v>
+        <v>624.4953266246685</v>
       </c>
       <c r="E15" t="n">
-        <v>465.2578716192135</v>
+        <v>465.2578716192129</v>
       </c>
       <c r="F15" t="n">
-        <v>318.7233136460984</v>
+        <v>318.7233136460979</v>
       </c>
       <c r="G15" t="n">
-        <v>182.3602134787165</v>
+        <v>182.3602134787166</v>
       </c>
       <c r="H15" t="n">
-        <v>91.85831911658403</v>
+        <v>91.85831911658408</v>
       </c>
       <c r="I15" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812204</v>
       </c>
       <c r="J15" t="n">
-        <v>166.5282970087393</v>
+        <v>166.5282970087392</v>
       </c>
       <c r="K15" t="n">
-        <v>404.7924959890865</v>
+        <v>404.7924959890863</v>
       </c>
       <c r="L15" t="n">
         <v>771.4906563017519</v>
@@ -5376,7 +5376,7 @@
         <v>2413.75089597268</v>
       </c>
       <c r="Q15" t="n">
-        <v>2571.39245361928</v>
+        <v>2571.392453619279</v>
       </c>
       <c r="R15" t="n">
         <v>2571.248100211795</v>
@@ -5385,7 +5385,7 @@
         <v>2441.810213705275</v>
       </c>
       <c r="T15" t="n">
-        <v>2249.167213383131</v>
+        <v>2249.16721338313</v>
       </c>
       <c r="U15" t="n">
         <v>2021.099366517546</v>
@@ -5394,7 +5394,7 @@
         <v>1785.947258285803</v>
       </c>
       <c r="W15" t="n">
-        <v>1531.709901557602</v>
+        <v>1531.709901557601</v>
       </c>
       <c r="X15" t="n">
         <v>1323.858401352069</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.8545595522228</v>
+        <v>673.9767549856751</v>
       </c>
       <c r="C16" t="n">
-        <v>568.9152753848471</v>
+        <v>547.0374708182995</v>
       </c>
       <c r="D16" t="n">
-        <v>568.9152753848471</v>
+        <v>438.9177301664951</v>
       </c>
       <c r="E16" t="n">
-        <v>462.9990805629852</v>
+        <v>333.0015353446332</v>
       </c>
       <c r="F16" t="n">
-        <v>358.1060318256061</v>
+        <v>302.7772534044827</v>
       </c>
       <c r="G16" t="n">
-        <v>232.4000939608563</v>
+        <v>177.071315539733</v>
       </c>
       <c r="H16" t="n">
-        <v>128.1798059392454</v>
+        <v>72.85102751812204</v>
       </c>
       <c r="I16" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812204</v>
       </c>
       <c r="J16" t="n">
         <v>159.1348204402543</v>
@@ -5449,13 +5449,13 @@
         <v>1529.891866043827</v>
       </c>
       <c r="O16" t="n">
-        <v>1870.382625439437</v>
+        <v>1870.382625439438</v>
       </c>
       <c r="P16" t="n">
-        <v>2144.151286348293</v>
+        <v>2144.151286348294</v>
       </c>
       <c r="Q16" t="n">
-        <v>2262.922742976004</v>
+        <v>2262.922742976005</v>
       </c>
       <c r="R16" t="n">
         <v>2215.089184494064</v>
@@ -5467,7 +5467,7 @@
         <v>1885.630482411479</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.524514297653</v>
+        <v>1638.524514297654</v>
       </c>
       <c r="V16" t="n">
         <v>1425.836924852298</v>
@@ -5476,10 +5476,10 @@
         <v>1178.416653575869</v>
       </c>
       <c r="X16" t="n">
-        <v>992.4240014383826</v>
+        <v>992.4240014383824</v>
       </c>
       <c r="Y16" t="n">
-        <v>813.6283210553837</v>
+        <v>813.6283210553836</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2024.811653310932</v>
+        <v>1703.298769318594</v>
       </c>
       <c r="C17" t="n">
         <v>1703.298769318594</v>
       </c>
       <c r="D17" t="n">
-        <v>1392.482703659916</v>
+        <v>1392.482703659917</v>
       </c>
       <c r="E17" t="n">
         <v>1054.144084009746</v>
       </c>
       <c r="F17" t="n">
-        <v>690.6078121682118</v>
+        <v>690.6078121682117</v>
       </c>
       <c r="G17" t="n">
-        <v>322.9849949612815</v>
+        <v>322.9849949612816</v>
       </c>
       <c r="H17" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812204</v>
       </c>
       <c r="I17" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812204</v>
       </c>
       <c r="J17" t="n">
-        <v>362.144960934832</v>
+        <v>429.1358074975005</v>
       </c>
       <c r="K17" t="n">
-        <v>695.9643346246785</v>
+        <v>762.9551811873471</v>
       </c>
       <c r="L17" t="n">
-        <v>1146.998547873087</v>
+        <v>1357.190388626395</v>
       </c>
       <c r="M17" t="n">
-        <v>1680.530452545012</v>
+        <v>1890.72229329832</v>
       </c>
       <c r="N17" t="n">
-        <v>2227.309269603794</v>
+        <v>2437.501110357102</v>
       </c>
       <c r="O17" t="n">
-        <v>2730.281740483131</v>
+        <v>2940.473581236439</v>
       </c>
       <c r="P17" t="n">
-        <v>3125.056106840309</v>
+        <v>3335.247947593617</v>
       </c>
       <c r="Q17" t="n">
-        <v>3583.534309349297</v>
+        <v>3583.534309349299</v>
       </c>
       <c r="R17" t="n">
-        <v>3642.5513759061</v>
+        <v>3642.551375906102</v>
       </c>
       <c r="S17" t="n">
-        <v>3642.5513759061</v>
+        <v>3579.71034038127</v>
       </c>
       <c r="T17" t="n">
-        <v>3621.599961485264</v>
+        <v>3421.182225713565</v>
       </c>
       <c r="U17" t="n">
-        <v>3621.599961485264</v>
+        <v>3215.101381935475</v>
       </c>
       <c r="V17" t="n">
-        <v>3337.986707089767</v>
+        <v>2931.488127539978</v>
       </c>
       <c r="W17" t="n">
-        <v>3032.667684767725</v>
+        <v>2626.169105217937</v>
       </c>
       <c r="X17" t="n">
-        <v>2706.651559454719</v>
+        <v>2300.15297990493</v>
       </c>
       <c r="Y17" t="n">
-        <v>2363.961860426981</v>
+        <v>1957.463280877192</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5589,10 @@
         <v>91.85831911658414</v>
       </c>
       <c r="I18" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812204</v>
       </c>
       <c r="J18" t="n">
-        <v>166.5282970087393</v>
+        <v>166.5282970087394</v>
       </c>
       <c r="K18" t="n">
         <v>404.7924959890865</v>
@@ -5659,19 +5659,19 @@
         <v>441.1881438128171</v>
       </c>
       <c r="F19" t="n">
-        <v>341.74782926298</v>
+        <v>341.7478292629801</v>
       </c>
       <c r="G19" t="n">
         <v>221.4946255857723</v>
       </c>
       <c r="H19" t="n">
-        <v>122.7270717517033</v>
+        <v>122.7270717517034</v>
       </c>
       <c r="I19" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812204</v>
       </c>
       <c r="J19" t="n">
-        <v>164.4790452174639</v>
+        <v>164.4790452174642</v>
       </c>
       <c r="K19" t="n">
         <v>414.9716134187469</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1661.275381469398</v>
+        <v>1618.313073761144</v>
       </c>
       <c r="C20" t="n">
-        <v>1339.762497477059</v>
+        <v>1296.800189768806</v>
       </c>
       <c r="D20" t="n">
-        <v>1028.946431818382</v>
+        <v>985.9841241101285</v>
       </c>
       <c r="E20" t="n">
-        <v>690.6078121682114</v>
+        <v>647.6455044599576</v>
       </c>
       <c r="F20" t="n">
-        <v>690.6078121682114</v>
+        <v>322.9849949612816</v>
       </c>
       <c r="G20" t="n">
-        <v>322.9849949612811</v>
+        <v>322.9849949612816</v>
       </c>
       <c r="H20" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812205</v>
       </c>
       <c r="I20" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812205</v>
       </c>
       <c r="J20" t="n">
-        <v>362.144960934832</v>
+        <v>429.1358074975007</v>
       </c>
       <c r="K20" t="n">
-        <v>695.9643346246785</v>
+        <v>762.9551811873473</v>
       </c>
       <c r="L20" t="n">
-        <v>1146.998547873087</v>
+        <v>1213.989394435756</v>
       </c>
       <c r="M20" t="n">
-        <v>1680.530452545012</v>
+        <v>1747.521299107681</v>
       </c>
       <c r="N20" t="n">
-        <v>2227.309269603794</v>
+        <v>2294.300116166463</v>
       </c>
       <c r="O20" t="n">
-        <v>2730.281740483131</v>
+        <v>2797.272587045801</v>
       </c>
       <c r="P20" t="n">
-        <v>3125.056106840309</v>
+        <v>3335.247947593617</v>
       </c>
       <c r="Q20" t="n">
-        <v>3583.534309349297</v>
+        <v>3583.5343093493</v>
       </c>
       <c r="R20" t="n">
-        <v>3642.5513759061</v>
+        <v>3642.551375906102</v>
       </c>
       <c r="S20" t="n">
-        <v>3622.672648089525</v>
+        <v>3579.710340381271</v>
       </c>
       <c r="T20" t="n">
-        <v>3464.14453342182</v>
+        <v>3421.182225713566</v>
       </c>
       <c r="U20" t="n">
-        <v>3258.06368964373</v>
+        <v>3215.101381935476</v>
       </c>
       <c r="V20" t="n">
-        <v>2974.450435248232</v>
+        <v>2931.488127539978</v>
       </c>
       <c r="W20" t="n">
-        <v>2669.131412926191</v>
+        <v>2626.169105217938</v>
       </c>
       <c r="X20" t="n">
-        <v>2343.115287613185</v>
+        <v>2300.152979904931</v>
       </c>
       <c r="Y20" t="n">
-        <v>2000.425588585446</v>
+        <v>1957.463280877193</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>947.8827655670473</v>
+        <v>947.882765567047</v>
       </c>
       <c r="C21" t="n">
-        <v>773.4297362859203</v>
+        <v>773.4297362859201</v>
       </c>
       <c r="D21" t="n">
-        <v>624.495326624669</v>
+        <v>624.4953266246689</v>
       </c>
       <c r="E21" t="n">
-        <v>465.2578716192135</v>
+        <v>465.2578716192133</v>
       </c>
       <c r="F21" t="n">
-        <v>318.7233136460985</v>
+        <v>318.7233136460984</v>
       </c>
       <c r="G21" t="n">
-        <v>182.3602134787166</v>
+        <v>182.360213478717</v>
       </c>
       <c r="H21" t="n">
-        <v>91.85831911658414</v>
+        <v>91.85831911658448</v>
       </c>
       <c r="I21" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812205</v>
       </c>
       <c r="J21" t="n">
-        <v>166.5282970087393</v>
+        <v>166.5282970087392</v>
       </c>
       <c r="K21" t="n">
-        <v>404.7924959890865</v>
+        <v>404.7924959890866</v>
       </c>
       <c r="L21" t="n">
-        <v>771.4906563017519</v>
+        <v>771.4906563017516</v>
       </c>
       <c r="M21" t="n">
-        <v>1218.766981524068</v>
+        <v>1218.766981524067</v>
       </c>
       <c r="N21" t="n">
         <v>1692.290025078522</v>
@@ -5896,19 +5896,19 @@
         <v>441.1881438128171</v>
       </c>
       <c r="F22" t="n">
-        <v>341.74782926298</v>
+        <v>341.7478292629801</v>
       </c>
       <c r="G22" t="n">
         <v>221.4946255857723</v>
       </c>
       <c r="H22" t="n">
-        <v>122.7270717517033</v>
+        <v>122.7270717517034</v>
       </c>
       <c r="I22" t="n">
-        <v>72.851027518122</v>
+        <v>72.85102751812205</v>
       </c>
       <c r="J22" t="n">
-        <v>164.4790452174642</v>
+        <v>164.4790452174643</v>
       </c>
       <c r="K22" t="n">
         <v>414.9716134187469</v>
@@ -5975,7 +5975,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
@@ -5987,16 +5987,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.87963479397</v>
+        <v>1771.984857554751</v>
       </c>
       <c r="M23" t="n">
-        <v>2033.429937623799</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N23" t="n">
         <v>2852.295579285458</v>
@@ -6139,16 +6139,16 @@
         <v>229.7905149643391</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302703</v>
       </c>
       <c r="I25" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
         <v>786.332686498217</v>
@@ -6157,13 +6157,13 @@
         <v>1176.995117350172</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
         <v>2313.972430572251</v>
@@ -6172,16 +6172,16 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
         <v>1262.182746297367</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2334.378013034257</v>
+        <v>2334.378013034256</v>
       </c>
       <c r="C26" t="n">
-        <v>1970.868230281387</v>
+        <v>1970.868230281386</v>
       </c>
       <c r="D26" t="n">
-        <v>1618.055265862179</v>
+        <v>1618.055265862178</v>
       </c>
       <c r="E26" t="n">
         <v>1237.719747451476</v>
       </c>
       <c r="F26" t="n">
-        <v>832.1865768494109</v>
+        <v>832.1865768494102</v>
       </c>
       <c r="G26" t="n">
-        <v>422.5668608819494</v>
+        <v>422.5668608819487</v>
       </c>
       <c r="H26" t="n">
         <v>130.4359946782585</v>
       </c>
       <c r="I26" t="n">
-        <v>93.89183010526931</v>
+        <v>93.89183010526929</v>
       </c>
       <c r="J26" t="n">
-        <v>450.1766100846478</v>
+        <v>282.7709610642947</v>
       </c>
       <c r="K26" t="n">
-        <v>783.9959837744943</v>
+        <v>937.4942931995943</v>
       </c>
       <c r="L26" t="n">
-        <v>1235.030197022903</v>
+        <v>1388.528506448003</v>
       </c>
       <c r="M26" t="n">
-        <v>2213.580499852732</v>
+        <v>1922.060411119928</v>
       </c>
       <c r="N26" t="n">
-        <v>2760.359316911514</v>
+        <v>2728.909083500327</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.323967240969</v>
+        <v>3608.873733829781</v>
       </c>
       <c r="P26" t="n">
-        <v>4353.679054687915</v>
+        <v>4322.228821276727</v>
       </c>
       <c r="Q26" t="n">
-        <v>4635.574438706663</v>
+        <v>4570.515183032409</v>
       </c>
       <c r="R26" t="n">
         <v>4694.591505263465</v>
       </c>
       <c r="S26" t="n">
-        <v>4589.753570978102</v>
+        <v>4589.753570978101</v>
       </c>
       <c r="T26" t="n">
-        <v>4389.228557549866</v>
+        <v>4389.228557549865</v>
       </c>
       <c r="U26" t="n">
-        <v>4141.150815011245</v>
+        <v>4141.150815011244</v>
       </c>
       <c r="V26" t="n">
-        <v>3815.540661855217</v>
+        <v>3815.540661855216</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.224740772645</v>
+        <v>3468.224740772644</v>
       </c>
       <c r="X26" t="n">
-        <v>3100.211716699107</v>
+        <v>3100.211716699106</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.525118910837</v>
+        <v>2715.525118910836</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>968.9235681541944</v>
+        <v>968.9235681541943</v>
       </c>
       <c r="C27" t="n">
-        <v>794.4705388730674</v>
+        <v>794.4705388730673</v>
       </c>
       <c r="D27" t="n">
-        <v>645.5361292118162</v>
+        <v>645.536129211816</v>
       </c>
       <c r="E27" t="n">
-        <v>486.2986742063607</v>
+        <v>486.2986742063605</v>
       </c>
       <c r="F27" t="n">
-        <v>339.7641162332457</v>
+        <v>339.7641162332455</v>
       </c>
       <c r="G27" t="n">
-        <v>203.4010160658638</v>
+        <v>203.4010160658636</v>
       </c>
       <c r="H27" t="n">
-        <v>112.8991217037313</v>
+        <v>112.8991217037312</v>
       </c>
       <c r="I27" t="n">
-        <v>93.89183010526931</v>
+        <v>93.89183010526929</v>
       </c>
       <c r="J27" t="n">
-        <v>187.5690995958865</v>
+        <v>187.5690995958866</v>
       </c>
       <c r="K27" t="n">
-        <v>425.8332985762336</v>
+        <v>425.8332985762338</v>
       </c>
       <c r="L27" t="n">
-        <v>792.531458888899</v>
+        <v>792.5314588888991</v>
       </c>
       <c r="M27" t="n">
         <v>1239.807784111215</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>776.1137929695089</v>
+        <v>236.3521895001204</v>
       </c>
       <c r="C28" t="n">
-        <v>612.630344229144</v>
+        <v>236.3521895001204</v>
       </c>
       <c r="D28" t="n">
-        <v>467.9664390043504</v>
+        <v>236.3521895001204</v>
       </c>
       <c r="E28" t="n">
-        <v>467.9664390043504</v>
+        <v>93.89183010526929</v>
       </c>
       <c r="F28" t="n">
-        <v>326.529225693982</v>
+        <v>93.89183010526929</v>
       </c>
       <c r="G28" t="n">
-        <v>326.529225693982</v>
+        <v>93.89183010526929</v>
       </c>
       <c r="H28" t="n">
-        <v>185.7647730993818</v>
+        <v>93.89183010526929</v>
       </c>
       <c r="I28" t="n">
-        <v>93.89183010526931</v>
+        <v>93.89183010526929</v>
       </c>
       <c r="J28" t="n">
         <v>144.3586873294148</v>
@@ -6388,7 +6388,7 @@
         <v>353.6900950555012</v>
       </c>
       <c r="L28" t="n">
-        <v>675.5941182812072</v>
+        <v>675.5941182812073</v>
       </c>
       <c r="M28" t="n">
         <v>1025.095388657966</v>
@@ -6400,34 +6400,34 @@
         <v>1676.521813838664</v>
       </c>
       <c r="P28" t="n">
-        <v>1914.473539049534</v>
+        <v>1914.473539049533</v>
       </c>
       <c r="Q28" t="n">
         <v>1997.428059979258</v>
       </c>
       <c r="R28" t="n">
-        <v>1997.428059979258</v>
+        <v>1913.050336924328</v>
       </c>
       <c r="S28" t="n">
-        <v>1997.428059979258</v>
+        <v>1726.817186938696</v>
       </c>
       <c r="T28" t="n">
-        <v>1781.114178736326</v>
+        <v>1510.503305695764</v>
       </c>
       <c r="U28" t="n">
-        <v>1497.464046049512</v>
+        <v>1226.85317300895</v>
       </c>
       <c r="V28" t="n">
-        <v>1248.232292031167</v>
+        <v>977.621418990605</v>
       </c>
       <c r="W28" t="n">
-        <v>1174.846340322682</v>
+        <v>693.6569831411862</v>
       </c>
       <c r="X28" t="n">
-        <v>952.3095236122066</v>
+        <v>471.1201664307109</v>
       </c>
       <c r="Y28" t="n">
-        <v>952.3095236122066</v>
+        <v>255.7803214747229</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2334.378013034256</v>
+        <v>2334.378013034257</v>
       </c>
       <c r="C29" t="n">
-        <v>1970.868230281386</v>
+        <v>1970.868230281387</v>
       </c>
       <c r="D29" t="n">
-        <v>1618.055265862178</v>
+        <v>1618.055265862179</v>
       </c>
       <c r="E29" t="n">
-        <v>1237.719747451476</v>
+        <v>1237.719747451477</v>
       </c>
       <c r="F29" t="n">
-        <v>832.1865768494102</v>
+        <v>832.1865768494113</v>
       </c>
       <c r="G29" t="n">
-        <v>422.5668608819487</v>
+        <v>422.5668608819497</v>
       </c>
       <c r="H29" t="n">
-        <v>130.4359946782585</v>
+        <v>130.4359946782586</v>
       </c>
       <c r="I29" t="n">
-        <v>93.89183010526929</v>
+        <v>93.89183010526931</v>
       </c>
       <c r="J29" t="n">
-        <v>450.1766100846478</v>
+        <v>282.7709610642947</v>
       </c>
       <c r="K29" t="n">
-        <v>1104.899942219947</v>
+        <v>619.4581082742948</v>
       </c>
       <c r="L29" t="n">
-        <v>1555.934155468356</v>
+        <v>1070.492321522704</v>
       </c>
       <c r="M29" t="n">
-        <v>2089.466060140281</v>
+        <v>1604.024226194628</v>
       </c>
       <c r="N29" t="n">
-        <v>2636.244877199063</v>
+        <v>2583.776498421275</v>
       </c>
       <c r="O29" t="n">
-        <v>3398.681893076476</v>
+        <v>3463.74114875073</v>
       </c>
       <c r="P29" t="n">
-        <v>4112.036980523421</v>
+        <v>4177.096236197675</v>
       </c>
       <c r="Q29" t="n">
-        <v>4570.515183032409</v>
+        <v>4635.574438706663</v>
       </c>
       <c r="R29" t="n">
         <v>4694.591505263465</v>
       </c>
       <c r="S29" t="n">
-        <v>4589.753570978101</v>
+        <v>4589.753570978103</v>
       </c>
       <c r="T29" t="n">
-        <v>4389.228557549865</v>
+        <v>4389.228557549867</v>
       </c>
       <c r="U29" t="n">
-        <v>4141.150815011244</v>
+        <v>4141.150815011246</v>
       </c>
       <c r="V29" t="n">
-        <v>3815.540661855216</v>
+        <v>3815.540661855217</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.224740772644</v>
+        <v>3468.224740772645</v>
       </c>
       <c r="X29" t="n">
-        <v>3100.211716699106</v>
+        <v>3100.211716699107</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.525118910836</v>
+        <v>2715.525118910837</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>112.8991217037312</v>
       </c>
       <c r="I30" t="n">
-        <v>93.89183010526929</v>
+        <v>93.89183010526931</v>
       </c>
       <c r="J30" t="n">
-        <v>187.5690995958866</v>
+        <v>187.5690995958867</v>
       </c>
       <c r="K30" t="n">
         <v>425.8332985762338</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.9623138869554</v>
+        <v>544.4995434652791</v>
       </c>
       <c r="C31" t="n">
-        <v>163.9623138869554</v>
+        <v>381.0160947249142</v>
       </c>
       <c r="D31" t="n">
-        <v>163.9623138869554</v>
+        <v>236.3521895001205</v>
       </c>
       <c r="E31" t="n">
-        <v>163.9623138869554</v>
+        <v>93.89183010526931</v>
       </c>
       <c r="F31" t="n">
-        <v>163.9623138869554</v>
+        <v>93.89183010526931</v>
       </c>
       <c r="G31" t="n">
-        <v>93.89183010526929</v>
+        <v>93.89183010526931</v>
       </c>
       <c r="H31" t="n">
-        <v>93.89183010526929</v>
+        <v>93.89183010526931</v>
       </c>
       <c r="I31" t="n">
-        <v>93.89183010526929</v>
+        <v>93.89183010526931</v>
       </c>
       <c r="J31" t="n">
-        <v>144.3586873294148</v>
+        <v>144.3586873294147</v>
       </c>
       <c r="K31" t="n">
-        <v>353.6900950555012</v>
+        <v>353.6900950555009</v>
       </c>
       <c r="L31" t="n">
-        <v>675.5941182812072</v>
+        <v>675.5941182812069</v>
       </c>
       <c r="M31" t="n">
         <v>1025.095388657966</v>
       </c>
       <c r="N31" t="n">
-        <v>1371.847990141041</v>
+        <v>1371.84799014104</v>
       </c>
       <c r="O31" t="n">
         <v>1676.521813838664</v>
       </c>
       <c r="P31" t="n">
-        <v>1914.473539049534</v>
+        <v>1914.473539049533</v>
       </c>
       <c r="Q31" t="n">
         <v>1997.428059979258</v>
       </c>
       <c r="R31" t="n">
-        <v>1997.428059979258</v>
+        <v>1913.050336924327</v>
       </c>
       <c r="S31" t="n">
-        <v>1811.194909993627</v>
+        <v>1726.817186938696</v>
       </c>
       <c r="T31" t="n">
-        <v>1594.881028750695</v>
+        <v>1510.503305695764</v>
       </c>
       <c r="U31" t="n">
-        <v>1311.23089606388</v>
+        <v>1226.853173008949</v>
       </c>
       <c r="V31" t="n">
-        <v>1061.999142045535</v>
+        <v>1043.803824270686</v>
       </c>
       <c r="W31" t="n">
-        <v>778.0347061961168</v>
+        <v>759.8393884212672</v>
       </c>
       <c r="X31" t="n">
-        <v>555.4978894856415</v>
+        <v>759.8393884212672</v>
       </c>
       <c r="Y31" t="n">
-        <v>340.1580445296535</v>
+        <v>544.4995434652791</v>
       </c>
     </row>
     <row r="32">
@@ -6674,58 +6674,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2291.781433493927</v>
+        <v>2291.781433493932</v>
       </c>
       <c r="C32" t="n">
-        <v>1936.075833195501</v>
+        <v>1936.075833195505</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.067051230736</v>
+        <v>1591.067051230739</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.535715274477</v>
+        <v>1218.53571527448</v>
       </c>
       <c r="F32" t="n">
-        <v>820.8067271268551</v>
+        <v>807.5498104848721</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7342769718516</v>
+        <v>405.7342769718532</v>
       </c>
       <c r="H32" t="n">
-        <v>121.4075932226042</v>
+        <v>121.4075932226051</v>
       </c>
       <c r="I32" t="n">
-        <v>92.66761110405849</v>
+        <v>92.66761110405851</v>
       </c>
       <c r="J32" t="n">
-        <v>281.5467420630839</v>
+        <v>448.952391083437</v>
       </c>
       <c r="K32" t="n">
-        <v>936.2700741983834</v>
+        <v>1103.675723218736</v>
       </c>
       <c r="L32" t="n">
-        <v>1800.788889851738</v>
+        <v>1905.968132798848</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.320794523663</v>
+        <v>2439.500037470772</v>
       </c>
       <c r="N32" t="n">
-        <v>2881.099611582445</v>
+        <v>2986.278854529555</v>
       </c>
       <c r="O32" t="n">
-        <v>3384.072082461782</v>
+        <v>3866.24350485901</v>
       </c>
       <c r="P32" t="n">
-        <v>4097.427169908728</v>
+        <v>4261.017871216188</v>
       </c>
       <c r="Q32" t="n">
-        <v>4509.304232971869</v>
+        <v>4509.30423297187</v>
       </c>
       <c r="R32" t="n">
-        <v>4633.380555202924</v>
+        <v>4633.380555202925</v>
       </c>
       <c r="S32" t="n">
-        <v>4536.346803372005</v>
+        <v>4536.346803372006</v>
       </c>
       <c r="T32" t="n">
         <v>4343.625972398212</v>
@@ -6734,16 +6734,16 @@
         <v>4090.095495672048</v>
       </c>
       <c r="V32" t="n">
-        <v>3759.032608328478</v>
+        <v>3772.289524970462</v>
       </c>
       <c r="W32" t="n">
-        <v>3415.47253051097</v>
+        <v>3419.520869700348</v>
       </c>
       <c r="X32" t="n">
-        <v>3042.00677224989</v>
+        <v>3059.312028081253</v>
       </c>
       <c r="Y32" t="n">
-        <v>2665.124356916063</v>
+        <v>2669.172696105441</v>
       </c>
     </row>
     <row r="33">
@@ -6753,58 +6753,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>967.6993491529838</v>
+        <v>967.6993491529836</v>
       </c>
       <c r="C33" t="n">
-        <v>793.2463198718568</v>
+        <v>793.2463198718566</v>
       </c>
       <c r="D33" t="n">
-        <v>644.3119102106057</v>
+        <v>644.3119102106053</v>
       </c>
       <c r="E33" t="n">
-        <v>485.0744552051501</v>
+        <v>485.0744552051498</v>
       </c>
       <c r="F33" t="n">
-        <v>338.5398972320352</v>
+        <v>338.5398972320348</v>
       </c>
       <c r="G33" t="n">
-        <v>202.176797064654</v>
+        <v>202.1767970646529</v>
       </c>
       <c r="H33" t="n">
-        <v>111.6749027025209</v>
+        <v>111.6749027025205</v>
       </c>
       <c r="I33" t="n">
-        <v>92.66761110405849</v>
+        <v>92.66761110405851</v>
       </c>
       <c r="J33" t="n">
-        <v>186.3448805946761</v>
+        <v>186.3448805946758</v>
       </c>
       <c r="K33" t="n">
-        <v>424.6090795750235</v>
+        <v>424.609079575023</v>
       </c>
       <c r="L33" t="n">
-        <v>791.3072398876886</v>
+        <v>791.3072398876884</v>
       </c>
       <c r="M33" t="n">
-        <v>1238.583565110005</v>
+        <v>1238.583565110004</v>
       </c>
       <c r="N33" t="n">
         <v>1712.106608664459</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.067888082514</v>
+        <v>2123.067888082513</v>
       </c>
       <c r="P33" t="n">
-        <v>2433.567479558617</v>
+        <v>2433.567479558616</v>
       </c>
       <c r="Q33" t="n">
-        <v>2591.209037205217</v>
+        <v>2591.209037205216</v>
       </c>
       <c r="R33" t="n">
         <v>2591.064683797732</v>
       </c>
       <c r="S33" t="n">
-        <v>2461.626797291212</v>
+        <v>2461.626797291211</v>
       </c>
       <c r="T33" t="n">
         <v>2268.983796969067</v>
@@ -6816,7 +6816,7 @@
         <v>1805.76384187174</v>
       </c>
       <c r="W33" t="n">
-        <v>1551.526485143539</v>
+        <v>1551.526485143538</v>
       </c>
       <c r="X33" t="n">
         <v>1343.674984938006</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>286.3625883100931</v>
+        <v>633.183104029524</v>
       </c>
       <c r="C34" t="n">
-        <v>286.3625883100931</v>
+        <v>477.5038377436018</v>
       </c>
       <c r="D34" t="n">
-        <v>286.3625883100931</v>
+        <v>340.6441149732508</v>
       </c>
       <c r="E34" t="n">
-        <v>286.3625883100931</v>
+        <v>205.9879380328424</v>
       </c>
       <c r="F34" t="n">
-        <v>286.3625883100931</v>
+        <v>92.66761110405851</v>
       </c>
       <c r="G34" t="n">
-        <v>176.7363716437276</v>
+        <v>92.66761110405851</v>
       </c>
       <c r="H34" t="n">
-        <v>176.7363716437276</v>
+        <v>92.66761110405851</v>
       </c>
       <c r="I34" t="n">
-        <v>92.66761110405849</v>
+        <v>92.66761110405851</v>
       </c>
       <c r="J34" t="n">
-        <v>150.7833475518041</v>
+        <v>150.7833475518033</v>
       </c>
       <c r="K34" t="n">
-        <v>367.7636345014904</v>
+        <v>367.7636345014889</v>
       </c>
       <c r="L34" t="n">
-        <v>697.3165369507966</v>
+        <v>697.3165369507942</v>
       </c>
       <c r="M34" t="n">
-        <v>1054.466686551156</v>
+        <v>1054.466686551152</v>
       </c>
       <c r="N34" t="n">
-        <v>1408.86816725783</v>
+        <v>1408.868167257826</v>
       </c>
       <c r="O34" t="n">
-        <v>1721.190870179053</v>
+        <v>1721.190870179049</v>
       </c>
       <c r="P34" t="n">
-        <v>1966.791474613523</v>
+        <v>1966.791474613517</v>
       </c>
       <c r="Q34" t="n">
-        <v>2057.394874766847</v>
+        <v>2057.394874766841</v>
       </c>
       <c r="R34" t="n">
-        <v>2057.394874766847</v>
+        <v>2057.394874766841</v>
       </c>
       <c r="S34" t="n">
-        <v>1878.965907235659</v>
+        <v>2057.394874766841</v>
       </c>
       <c r="T34" t="n">
-        <v>1670.456208447171</v>
+        <v>1848.885175978352</v>
       </c>
       <c r="U34" t="n">
-        <v>1394.6102582148</v>
+        <v>1573.03922574598</v>
       </c>
       <c r="V34" t="n">
-        <v>1153.182686650899</v>
+        <v>1331.611654182078</v>
       </c>
       <c r="W34" t="n">
-        <v>877.0224332559237</v>
+        <v>1055.451400787102</v>
       </c>
       <c r="X34" t="n">
-        <v>662.2897989998919</v>
+        <v>840.7187665310694</v>
       </c>
       <c r="Y34" t="n">
-        <v>454.7541364983473</v>
+        <v>633.183104029524</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,25 +6935,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>1045.699547878784</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L35" t="n">
-        <v>1496.733761127193</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M35" t="n">
-        <v>2030.265665799117</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N35" t="n">
-        <v>2577.0444828579</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O35" t="n">
-        <v>3080.016953737237</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094415</v>
+        <v>3477.955591919096</v>
       </c>
       <c r="Q35" t="n">
         <v>3933.269522603403</v>
@@ -6980,7 +6980,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E36" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F36" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I36" t="n">
         <v>81.14691689668916</v>
@@ -7059,7 +7059,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
@@ -7093,16 +7093,16 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7123,16 +7123,16 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
@@ -7214,7 +7214,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
         <v>2372.257749805548</v>
@@ -7248,7 +7248,7 @@
         <v>100.1542084951513</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7312,13 +7312,13 @@
         <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
         <v>229.7905149643395</v>
@@ -7327,19 +7327,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7351,7 +7351,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
         <v>2271.591606277852</v>
@@ -7360,7 +7360,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7369,7 +7369,7 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347423</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7403,10 +7403,10 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
@@ -7415,43 +7415,43 @@
         <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1222.285283814323</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M41" t="n">
-        <v>1755.817188486248</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N41" t="n">
-        <v>2302.59600554503</v>
+        <v>2716.080607949976</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424367</v>
+        <v>3219.053078829313</v>
       </c>
       <c r="P41" t="n">
-        <v>3474.791320094414</v>
+        <v>3613.827445186491</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
         <v>2372.257749805548</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7494,7 +7494,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7533,7 +7533,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="43">
@@ -7552,28 +7552,28 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7597,7 +7597,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7606,13 +7606,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
         <v>1711.594658697161</v>
@@ -7634,10 +7634,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668916</v>
@@ -7652,19 +7652,19 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1054.87963479397</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M44" t="n">
-        <v>1872.543307058811</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N44" t="n">
-        <v>2852.295579285458</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O44" t="n">
-        <v>3355.268050164795</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P44" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q44" t="n">
         <v>3998.328778277656</v>
@@ -7688,7 +7688,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7810,19 +7810,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
   </sheetData>
@@ -8456,10 +8456,10 @@
         <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
@@ -8535,19 +8535,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
         <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>154.6662191763026</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.4290933916006</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>313.7440840515072</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>101.4290933916006</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>144.6474688794333</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.4290933916006</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,10 +9416,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>144.6474688794329</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>231.1066821161361</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>274.8351763665421</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>262.6968235571885</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.94850733643071</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.598721155460225e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>2.896740929448015</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,10 +10121,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>262.0853989879554</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.598721155460225e-13</v>
+        <v>1.740829702612245e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>354.8062589209116</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>165.2431326337973</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>277.220684154414</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>209.1187564935601</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>343.5485285966304</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>71.87446026386849</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11300,22 +11300,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>190.2350110279876</v>
       </c>
       <c r="M44" t="n">
-        <v>287.0017854473909</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>323.6959619980816</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>208.7822697600304</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>154.6727287921678</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>286.175328697209</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.248691280066765</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.6975697661684</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>136.8515777030698</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>112.7093736248409</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.65902652088205</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>73.9220791292563</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.77549063691215</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>84.13583860187606</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>136.2009332443999</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23978,10 +23978,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>38.48700471943012</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>42.53268463117396</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>155.1999226814143</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>161.8486142529612</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>143.2172661725457</v>
       </c>
       <c r="E28" t="n">
-        <v>141.0357558009026</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>140.0228411772646</v>
       </c>
       <c r="G28" t="n">
         <v>160.6276014133616</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.3568080686542</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>90.95421356417148</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>83.53394582438071</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.3708184857753</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>208.4726992995241</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.1864465064282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>174.4337733362707</v>
       </c>
       <c r="C31" t="n">
-        <v>161.8486142529612</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>143.2172661725457</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>141.0357558009026</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>140.0228411772646</v>
+        <v>140.0228411772647</v>
       </c>
       <c r="G31" t="n">
-        <v>91.25782246949235</v>
+        <v>160.6276014133617</v>
       </c>
       <c r="H31" t="n">
         <v>139.3568080686542</v>
       </c>
       <c r="I31" t="n">
-        <v>90.95421356417148</v>
+        <v>90.95421356417154</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>83.53394582438071</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>65.52058122728064</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>220.3114485433706</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>166.7076327063725</v>
       </c>
       <c r="C34" t="n">
-        <v>154.1224736230622</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>135.4911255426467</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>133.3096151710035</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>132.2967005473656</v>
+        <v>20.10957688787036</v>
       </c>
       <c r="G34" t="n">
-        <v>44.37150628376062</v>
+        <v>152.9014607834634</v>
       </c>
       <c r="H34" t="n">
-        <v>131.6306674387551</v>
+        <v>131.6306674387559</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>83.22807293427323</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>75.80780519448169</v>
+        <v>75.8078051944825</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>176.644677855877</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876669.7540278012</v>
+        <v>876669.7540278009</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>912934.916280552</v>
+        <v>912934.9162805522</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>923405.0951712308</v>
+        <v>923405.0951712311</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>923405.0951712308</v>
+        <v>923405.0951712311</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>963343.6754675596</v>
+        <v>963343.6754675589</v>
       </c>
     </row>
     <row r="13">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>491565.8032302231</v>
+      </c>
+      <c r="C2" t="n">
         <v>491565.803230223</v>
-      </c>
-      <c r="C2" t="n">
-        <v>491565.8032302229</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
@@ -26323,13 +26323,13 @@
         <v>453255.9039039867</v>
       </c>
       <c r="F2" t="n">
-        <v>467942.1314509456</v>
+        <v>467942.1314509458</v>
       </c>
       <c r="G2" t="n">
-        <v>473404.8334808641</v>
+        <v>473404.8334808642</v>
       </c>
       <c r="H2" t="n">
-        <v>473404.8334808641</v>
+        <v>473404.8334808644</v>
       </c>
       <c r="I2" t="n">
         <v>492625.0619185697</v>
@@ -26341,19 +26341,19 @@
         <v>478351.3892690126</v>
       </c>
       <c r="L2" t="n">
-        <v>481003.8314478343</v>
+        <v>481003.831447834</v>
       </c>
       <c r="M2" t="n">
+        <v>492625.0619185696</v>
+      </c>
+      <c r="N2" t="n">
+        <v>492625.0619185692</v>
+      </c>
+      <c r="O2" t="n">
         <v>492625.0619185697</v>
       </c>
-      <c r="N2" t="n">
-        <v>492625.0619185696</v>
-      </c>
-      <c r="O2" t="n">
-        <v>492625.0619185696</v>
-      </c>
       <c r="P2" t="n">
-        <v>492625.0619185693</v>
+        <v>492625.0619185692</v>
       </c>
     </row>
     <row r="3">
@@ -26375,31 +26375,31 @@
         <v>1152460.53739441</v>
       </c>
       <c r="F3" t="n">
-        <v>22703.28547262037</v>
+        <v>22703.28547262081</v>
       </c>
       <c r="G3" t="n">
-        <v>4318.565476533291</v>
+        <v>4318.565476533286</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27575.63999297445</v>
+        <v>27575.6399929743</v>
       </c>
       <c r="J3" t="n">
-        <v>41682.87589432183</v>
+        <v>41682.87589432177</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10499.47798045252</v>
+        <v>10499.47798045192</v>
       </c>
       <c r="M3" t="n">
-        <v>194568.1577161071</v>
+        <v>194568.1577161075</v>
       </c>
       <c r="N3" t="n">
-        <v>19407.13094432087</v>
+        <v>19407.13094432115</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>50565.90376098748</v>
       </c>
       <c r="F4" t="n">
-        <v>58719.92425903567</v>
+        <v>58719.92425903572</v>
       </c>
       <c r="G4" t="n">
-        <v>63929.80205159749</v>
+        <v>63929.80205159753</v>
       </c>
       <c r="H4" t="n">
-        <v>63929.80205159749</v>
+        <v>63929.80205159751</v>
       </c>
       <c r="I4" t="n">
-        <v>74601.16991356853</v>
+        <v>74601.16991356855</v>
       </c>
       <c r="J4" t="n">
-        <v>49225.38152724698</v>
+        <v>49225.38152724694</v>
       </c>
       <c r="K4" t="n">
-        <v>49225.38152724695</v>
+        <v>49225.38152724692</v>
       </c>
       <c r="L4" t="n">
-        <v>52891.02691172192</v>
+        <v>52891.02691172159</v>
       </c>
       <c r="M4" t="n">
         <v>74601.16991356853</v>
       </c>
       <c r="N4" t="n">
-        <v>74601.16991356853</v>
+        <v>74601.16991356855</v>
       </c>
       <c r="O4" t="n">
-        <v>74601.1699135685</v>
+        <v>74601.16991356852</v>
       </c>
       <c r="P4" t="n">
-        <v>74601.16991356853</v>
+        <v>74601.16991356856</v>
       </c>
     </row>
     <row r="5">
@@ -26476,28 +26476,28 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>77801.67147047343</v>
+        <v>77801.6714704734</v>
       </c>
       <c r="F5" t="n">
-        <v>82619.24389578673</v>
+        <v>82619.24389578676</v>
       </c>
       <c r="G5" t="n">
-        <v>83073.06574709507</v>
+        <v>83073.0657470951</v>
       </c>
       <c r="H5" t="n">
-        <v>83073.06574709507</v>
+        <v>83073.06574709513</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
+        <v>95568.7448042469</v>
+      </c>
+      <c r="K5" t="n">
         <v>95568.74480424692</v>
       </c>
-      <c r="K5" t="n">
-        <v>95568.7448042469</v>
-      </c>
       <c r="L5" t="n">
-        <v>95287.86727994168</v>
+        <v>95287.86727994162</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43165.80461726411</v>
+        <v>43161.39103939605</v>
       </c>
       <c r="C6" t="n">
-        <v>43165.80461726394</v>
+        <v>43161.39103939594</v>
       </c>
       <c r="D6" t="n">
-        <v>39593.95185665759</v>
+        <v>39593.95185665765</v>
       </c>
       <c r="E6" t="n">
-        <v>-827572.2087218844</v>
+        <v>-827736.2468802782</v>
       </c>
       <c r="F6" t="n">
-        <v>303899.6778235028</v>
+        <v>303796.8322798874</v>
       </c>
       <c r="G6" t="n">
-        <v>322083.4002056383</v>
+        <v>322003.3159204813</v>
       </c>
       <c r="H6" t="n">
-        <v>326401.9656821715</v>
+        <v>326321.8813970147</v>
       </c>
       <c r="I6" t="n">
-        <v>301070.3103372206</v>
+        <v>301070.3103372207</v>
       </c>
       <c r="J6" t="n">
-        <v>291874.3870431968</v>
+        <v>291814.9134071571</v>
       </c>
       <c r="K6" t="n">
-        <v>333557.2629375187</v>
+        <v>333497.7893014789</v>
       </c>
       <c r="L6" t="n">
-        <v>322325.4592757181</v>
+        <v>322277.0374820908</v>
       </c>
       <c r="M6" t="n">
-        <v>134077.792614088</v>
+        <v>134077.7926140874</v>
       </c>
       <c r="N6" t="n">
-        <v>309238.819385874</v>
+        <v>309238.8193858734</v>
       </c>
       <c r="O6" t="n">
         <v>328645.950330195</v>
       </c>
       <c r="P6" t="n">
-        <v>328645.9503301947</v>
+        <v>328645.9503301945</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>41.57692977292594</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="K2" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="L2" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>910.637843976525</v>
+        <v>910.6378439765255</v>
       </c>
       <c r="G4" t="n">
-        <v>910.637843976525</v>
+        <v>910.6378439765255</v>
       </c>
       <c r="H4" t="n">
-        <v>910.637843976525</v>
+        <v>910.6378439765256</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208614</v>
@@ -26823,10 +26823,10 @@
         <v>1014.336461208615</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208615</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13.12434747556565</v>
+        <v>13.1243474755649</v>
       </c>
       <c r="M2" t="n">
-        <v>33.85078914302691</v>
+        <v>33.8507891430277</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>816.098717887158</v>
+        <v>816.0987178871576</v>
       </c>
       <c r="F4" t="n">
-        <v>79.23638857423191</v>
+        <v>79.23638857423282</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>103.6986172320894</v>
+        <v>103.6986172320888</v>
       </c>
       <c r="J4" t="n">
-        <v>159.3114151072519</v>
+        <v>159.3114151072517</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>672.0900402950415</v>
+        <v>672.0900402950408</v>
       </c>
       <c r="N4" t="n">
-        <v>79.2363885742318</v>
+        <v>79.23638857423293</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>816.098717887158</v>
+        <v>816.0987178871576</v>
       </c>
       <c r="N4" t="n">
-        <v>79.23638857423191</v>
+        <v>79.23638857423282</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27856,13 +27856,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>339.3803041055479</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>203.6344894210972</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27904,13 +27904,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>216.4932441025119</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>312.4495209549999</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27932,16 +27932,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>157.4057614731807</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>144.9130205783279</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>158.2045199005069</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>190.3799582621693</v>
       </c>
     </row>
     <row r="10">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.5292426668022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>6.966754310747802</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28062,22 +28062,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>214.4669382249506</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>271.220260821456</v>
       </c>
       <c r="X10" t="n">
-        <v>214.9524449208127</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.2819158369597</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>41.57692977292594</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>41.57692977292594</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859223</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859219</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859222</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="23">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="C26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="D26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="E26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="F26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="G26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="H26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="I26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="T26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="U26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="V26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="W26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="X26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="C28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="D28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="E28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="F28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="G28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="H28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="I28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="J28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="K28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="L28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="M28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="N28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="O28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="P28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="R28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="S28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="T28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="U28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="V28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="W28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="X28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.398206845666614</v>
+        <v>5.398206845666607</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="C29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="D29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="E29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="F29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="G29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="H29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="I29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="T29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="U29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="V29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="W29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="X29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="C31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="D31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="E31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="F31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="G31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="H31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="I31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="J31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="K31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="L31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="M31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="N31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="O31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="P31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="R31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="S31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="T31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="U31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="V31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="W31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="X31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.398206845666614</v>
+        <v>5.39820684566655</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13.12434747556565</v>
+        <v>9.11649167808639</v>
       </c>
       <c r="C32" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="D32" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="E32" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="F32" t="n">
-        <v>13.12434747556565</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="H32" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="I32" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="T32" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="W32" t="n">
-        <v>9.116491678080081</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.12434747556565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="C34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="D34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="E34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="F34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="G34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="H34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="I34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="J34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="K34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="L34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="M34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="N34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="O34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="P34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="R34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="S34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="T34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="U34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="V34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="W34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="X34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.12434747556565</v>
+        <v>13.12434747556485</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185917</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -35176,10 +35176,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>14.68444509028111</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.15534638599217</v>
+        <v>87.15534638599215</v>
       </c>
       <c r="K13" t="n">
         <v>247.6245893172455</v>
@@ -35574,7 +35574,7 @@
         <v>361.334301943124</v>
       </c>
       <c r="M13" t="n">
-        <v>389.2103091664098</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N13" t="n">
         <v>386.433875940466</v>
@@ -35583,7 +35583,7 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P13" t="n">
-        <v>276.5340009180364</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q13" t="n">
         <v>119.9711683108196</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>292.2160943603131</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>769.3341984438393</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35665,7 +35665,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>292.2160943603131</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>600.2375832717655</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35902,7 +35902,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165846</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L19" t="n">
         <v>366.7325087887907</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>292.2160943603131</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>543.4094550988049</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629117</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
@@ -36291,7 +36291,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P22" t="n">
         <v>281.932207763703</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>686.6967965084683</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>827.1370117794536</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36525,7 +36525,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>814.9986589701</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36613,10 +36613,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>284.7428121401502</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597695</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>50.97662345873284</v>
+        <v>50.97662345873283</v>
       </c>
       <c r="K28" t="n">
         <v>211.4458663899862</v>
       </c>
       <c r="L28" t="n">
-        <v>325.1555790158647</v>
+        <v>325.1555790158648</v>
       </c>
       <c r="M28" t="n">
         <v>353.0315862391504</v>
@@ -36771,7 +36771,7 @@
         <v>240.355277990777</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.79244538356028</v>
+        <v>83.79244538356026</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>340.0880274848485</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36841,10 +36841,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>770.1383998761745</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>50.97662345873284</v>
+        <v>50.97662345873277</v>
       </c>
       <c r="K31" t="n">
-        <v>211.4458663899862</v>
+        <v>211.4458663899861</v>
       </c>
       <c r="L31" t="n">
-        <v>325.1555790158647</v>
+        <v>325.1555790158646</v>
       </c>
       <c r="M31" t="n">
         <v>353.0315862391504</v>
       </c>
       <c r="N31" t="n">
-        <v>350.2551530132067</v>
+        <v>350.2551530132066</v>
       </c>
       <c r="O31" t="n">
-        <v>307.7513370683064</v>
+        <v>307.7513370683063</v>
       </c>
       <c r="P31" t="n">
         <v>240.355277990777</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.79244538356028</v>
+        <v>83.79244538356021</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>810.3963733132438</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,13 +37081,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>416.0374374375168</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.7027640886319</v>
+        <v>58.70276408863107</v>
       </c>
       <c r="K34" t="n">
-        <v>219.1720070198852</v>
+        <v>219.1720070198844</v>
       </c>
       <c r="L34" t="n">
-        <v>332.8817196457638</v>
+        <v>332.881719645763</v>
       </c>
       <c r="M34" t="n">
-        <v>360.7577268690495</v>
+        <v>360.7577268690487</v>
       </c>
       <c r="N34" t="n">
-        <v>357.9812936431057</v>
+        <v>357.9812936431049</v>
       </c>
       <c r="O34" t="n">
-        <v>315.4774776982054</v>
+        <v>315.4774776982046</v>
       </c>
       <c r="P34" t="n">
-        <v>248.0814186206761</v>
+        <v>248.0814186206753</v>
       </c>
       <c r="Q34" t="n">
-        <v>91.5185860134593</v>
+        <v>91.5185860134585</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>614.4119707098145</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37324,7 +37324,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>459.9130612972796</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37552,19 +37552,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>895.8503640095419</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37783,7 +37783,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37795,10 +37795,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>322.668765067588</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38020,22 +38020,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>645.8251254203198</v>
       </c>
       <c r="M44" t="n">
-        <v>825.9229012776177</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861318</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
